--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportReview.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportReview.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B219D67-2AE7-4423-B2AE-FBA0800AEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="3" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -194,19 +205,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>流動比率</t>
   </si>
   <si>
     <t>固定長期適合率</t>
   </si>
   <si>
-    <t>CustUKey,UKey</t>
-  </si>
-  <si>
     <t>客戶財務報表.覆審比率表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -373,12 +377,20 @@
   <si>
     <t>FinReportReview</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey,Ukey</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -636,10 +648,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="4"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,6 +742,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -765,6 +794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -964,10 +1010,10 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -992,7 +1038,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
@@ -1071,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>10</v>
@@ -1091,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>31</v>
@@ -1111,13 +1157,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="20">
         <v>18</v>
@@ -1131,13 +1177,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="20">
         <v>18</v>
@@ -1151,13 +1197,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="20">
         <v>18</v>
@@ -1171,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="20">
         <v>18</v>
@@ -1191,13 +1237,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="20">
         <v>18</v>
@@ -1211,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="20">
         <v>18</v>
@@ -1231,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="20">
         <v>18</v>
@@ -1251,13 +1297,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="20">
         <v>18</v>
@@ -1271,13 +1317,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="20">
         <v>18</v>
@@ -1291,13 +1337,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="20">
         <v>18</v>
@@ -1311,13 +1357,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="20">
         <v>18</v>
@@ -1331,13 +1377,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="20">
         <v>18</v>
@@ -1351,13 +1397,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="20">
         <v>18</v>
@@ -1371,13 +1417,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="20">
         <v>18</v>
@@ -1391,13 +1437,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="20">
         <v>18</v>
@@ -1411,13 +1457,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="20">
         <v>18</v>
@@ -1431,13 +1477,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="20">
         <v>18</v>
@@ -1451,13 +1497,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="20">
         <v>18</v>
@@ -1471,13 +1517,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="20">
         <v>18</v>
@@ -1493,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="20">
         <v>18</v>
@@ -1515,13 +1561,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="D31" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="20">
         <v>18</v>
@@ -1537,13 +1583,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="20">
         <v>18</v>
@@ -1559,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="20">
         <v>18</v>
@@ -1581,13 +1627,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="20">
         <v>18</v>
@@ -1603,13 +1649,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="20">
         <v>18</v>
@@ -2126,12 +2172,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
